--- a/REPORTE SEMANAL 5 ANGEL OMAR FLORES PEREZ.xlsx
+++ b/REPORTE SEMANAL 5 ANGEL OMAR FLORES PEREZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario1_ti\Downloads\REPORTES ESCUELA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15644854-EB6A-402D-9352-7046B4FF8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C08C002-0731-4420-B0D0-49BE74081429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE SEMANAL" sheetId="1" r:id="rId1"/>
@@ -98,25 +98,25 @@
     <t>9:30 am - 5:00 pm</t>
   </si>
   <si>
-    <t>Se asistio a el Tecnologico para revision de progreso con el asesor interno donde nos dio observaciones y recomendaciones sobre el progreso que se tiene de el proyecto que se realiza.</t>
-  </si>
-  <si>
     <t>10:00 am - 11:00am</t>
   </si>
   <si>
-    <t>Se le dio una revision a la base de datos para validar su funcionalidad y de igual forma que cumpla con los requerimentos para lo que se necesitara.</t>
-  </si>
-  <si>
-    <t>Se adaptaron nuevos cambios en los diseños de las interfaces según observaciones vistas.</t>
-  </si>
-  <si>
-    <t>Se plantearon nuevos diseños para nuevas interfaces de funciones adicionales del sistema.</t>
-  </si>
-  <si>
-    <t>Se realizaron los diseños de las interfaces adicionales planteadas previamente.</t>
-  </si>
-  <si>
     <t>SEMANA 5</t>
+  </si>
+  <si>
+    <t>Se continuo con el diseño de las interfaces que se plantearon previamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En base a la revision hecha a la base de datos se le hicieron modificaciones para su correcto funcionamiento y facilidad para la extraccion de datos. </t>
+  </si>
+  <si>
+    <t>Se hicieron los diseños respectivos para los diagramas Entidad - Relacion ademas del diagrama Relacional en base a las modificaciones que se hicieron a la base de datos.</t>
+  </si>
+  <si>
+    <t>Se comenzo con la codificacion de las primeras interfaces que se tenian contempladas como correctas de las revisiones previas.</t>
+  </si>
+  <si>
+    <t>Se le dio revision a los aspectos o interfaces que estaban correctas respecto a revisiones previas para comenzar con su codificacion.</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,39 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,9 +671,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,36 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,22 +897,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>501652</xdr:rowOff>
+      <xdr:rowOff>370418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1088571</xdr:colOff>
+      <xdr:colOff>1513416</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>320223</xdr:rowOff>
+      <xdr:rowOff>347982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AEE4B8-E636-A761-82D0-B3556C816A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3ECB918-79E4-F5CD-5FDE-DA74530033B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,8 +934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="204108" y="2188938"/>
-          <a:ext cx="2558142" cy="3410856"/>
+          <a:off x="444500" y="2053168"/>
+          <a:ext cx="2741083" cy="3575897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,23 +946,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>231324</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243876</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>605972</xdr:rowOff>
+      <xdr:rowOff>402167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1504953</xdr:colOff>
+      <xdr:colOff>814916</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>326572</xdr:rowOff>
+      <xdr:rowOff>443887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52141C5E-7D04-3774-731B-E646DFBBEFA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA617F8-24E0-54CA-83C1-C7E65270D74E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,58 +984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776360" y="2293258"/>
-          <a:ext cx="2484664" cy="3312885"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1319893</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>925286</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE694D9-F255-9B75-A3F2-9412DB867AB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2993572" y="2709863"/>
-          <a:ext cx="3524250" cy="2643188"/>
+          <a:off x="5831876" y="2084917"/>
+          <a:ext cx="2730040" cy="3640053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,56 +1345,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="20" t="e" vm="1">
+      <c r="F1" s="31" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="34">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="35">
         <v>45945</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1463,14 +1413,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1479,10 +1429,10 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1491,72 +1441,72 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>22</v>
+      <c r="A9" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="14">
         <v>45939</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="35"/>
+      <c r="C9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="15">
         <v>45940</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="36"/>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="15">
         <v>45943</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="15">
         <v>45944</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="29"/>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="15">
         <v>45945</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1587,19 +1537,26 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="C12:D12"/>
@@ -1610,13 +1567,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -1631,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,56 +1597,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="20" t="e" vm="1">
+      <c r="F1" s="31" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="34">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="35">
         <v>45938</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1716,7 +1666,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -1838,6 +1788,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:F4"/>
@@ -1845,11 +1800,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A9:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
